--- a/Data/Program output/203-I 202-I 201-I 200-U 199-I 198-U 195-I 194-U 190-I 188-I output at 10 microns.xlsx
+++ b/Data/Program output/203-I 202-I 201-I 200-U 199-I 198-U 195-I 194-U 190-I 188-I output at 10 microns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,70 +466,85 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Slope_Percent_Error</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ultimate_Strength</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CNT_Diameter</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Sample_Average_CNT_Diameter</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Post_Length</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Effective_Length</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wire_Effective_Length</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wire_Stiffness</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Failure_Mode</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Growth_Time</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Infiltration_Time</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Slope_Initial_Guess</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Intercept_Initial_Guess</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Initial_Points_Dropped</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Data_Points</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Problem_Post</t>
         </is>
@@ -538,136 +553,154 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>199-I</t>
+          <t>188-I</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>121184086.9368678</v>
+        <v>280424921.7072539</v>
       </c>
       <c r="E2" t="n">
-        <v>40054336.34001965</v>
+        <v>92969466.36583099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3305247194781142</v>
+        <v>0.3315306849327939</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05453146269578202</v>
+        <v>9.289599308093027</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.009017585246243423</v>
       </c>
       <c r="I2" t="n">
-        <v>16.26235294117647</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.97995825124308</v>
+        <v>23.127</v>
       </c>
       <c r="K2" t="n">
-        <v>693.75</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>548.75</v>
+        <v>455</v>
       </c>
       <c r="M2" t="n">
-        <v>2631</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2286</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.4214897134841967</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
       <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>48</v>
+      </c>
+      <c r="W2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>199-I</t>
+          <t>190-I</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>238659954.5328438</v>
+        <v>1710462911.783044</v>
       </c>
       <c r="E3" t="n">
-        <v>78150028.57616693</v>
+        <v>558882576.9245909</v>
       </c>
       <c r="F3" t="n">
-        <v>0.327453462937001</v>
+        <v>0.3267434640497366</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03446745470178767</v>
+        <v>13.22689164976629</v>
       </c>
       <c r="H3" t="n">
-        <v>3.865555442430601e-06</v>
+        <v>0.007630319147622535</v>
       </c>
       <c r="I3" t="n">
-        <v>18.98210526315789</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.97995825124308</v>
+        <v>18.90318181818182</v>
       </c>
       <c r="K3" t="n">
-        <v>743</v>
+        <v>1.95753781512605e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>598</v>
+        <v>700</v>
       </c>
       <c r="M3" t="n">
-        <v>2624</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>490</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2299</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.4143799602780727</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>floor_layer</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -681,129 +714,147 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>280424921.7072539</v>
+        <v>114117427.128446</v>
       </c>
       <c r="E4" t="n">
-        <v>92969466.36583099</v>
+        <v>37891273.98655169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3315306849327939</v>
+        <v>0.3320375769066612</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009017585246243423</v>
+        <v>3.994025867613821</v>
       </c>
       <c r="H4" t="n">
-        <v>3.62738360426268e-05</v>
+        <v>0.01787983345551487</v>
       </c>
       <c r="I4" t="n">
-        <v>23.127</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.68437225045486</v>
+        <v>21.47708333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>455</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L4" t="n">
-        <v>300</v>
+        <v>452</v>
       </c>
       <c r="M4" t="n">
-        <v>2286</v>
-      </c>
-      <c r="N4" t="inlineStr">
+        <v>297</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2305</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.4111524372855223</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>stump</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>199-I</t>
+          <t>188-I</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>174707444.9382453</v>
+        <v>240578802.0426247</v>
       </c>
       <c r="E5" t="n">
-        <v>57811260.08085488</v>
+        <v>79823888.8897191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3309032428543026</v>
+        <v>0.3317993447967051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0565832760522561</v>
+        <v>8.567988933176816</v>
       </c>
       <c r="H5" t="n">
-        <v>3.869873470605973e-06</v>
+        <v>0.007419437090040021</v>
       </c>
       <c r="I5" t="n">
-        <v>17.107</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15.97995825124308</v>
+        <v>21.7216</v>
       </c>
       <c r="K5" t="n">
-        <v>715</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L5" t="n">
-        <v>545</v>
+        <v>429</v>
       </c>
       <c r="M5" t="n">
-        <v>2617</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>294</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2295</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.416550431445353</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
       <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>27</v>
+      </c>
+      <c r="W5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -817,61 +868,70 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>114117427.128446</v>
+        <v>56169399.73299892</v>
       </c>
       <c r="E6" t="n">
-        <v>37891273.98655169</v>
+        <v>18685266.13283876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3320375769066612</v>
+        <v>0.3326591742418313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01787983345551487</v>
+        <v>2.022743513926719</v>
       </c>
       <c r="H6" t="n">
-        <v>1.492911291104317e-05</v>
+        <v>0.02270798228496995</v>
       </c>
       <c r="I6" t="n">
-        <v>21.47708333333333</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.68437225045486</v>
+        <v>22.35374999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="M6" t="n">
-        <v>2305</v>
-      </c>
-      <c r="N6" t="inlineStr">
+        <v>291</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2280</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4248260282466335</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>stump</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
       <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>32</v>
+      </c>
+      <c r="W6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -885,61 +945,70 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>240578802.0426247</v>
+        <v>218785060.1610894</v>
       </c>
       <c r="E7" t="n">
-        <v>79823888.8897191</v>
+        <v>72787400.37602946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3317993447967051</v>
+        <v>0.3326890799693397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007419437090040021</v>
+        <v>8.198758212739831</v>
       </c>
       <c r="H7" t="n">
-        <v>3.607220597978504e-05</v>
+        <v>0.01352567001753224</v>
       </c>
       <c r="I7" t="n">
-        <v>21.7216</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.68437225045486</v>
+        <v>23.21772727272727</v>
       </c>
       <c r="K7" t="n">
-        <v>429</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L7" t="n">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="M7" t="n">
-        <v>2295</v>
-      </c>
-      <c r="N7" t="inlineStr">
+        <v>282</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2239</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.44859391423535</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>stump</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
       <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>73</v>
+      </c>
+      <c r="W7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -953,197 +1022,224 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>56169399.73299892</v>
+        <v>199086034.1089318</v>
       </c>
       <c r="E8" t="n">
-        <v>18685266.13283876</v>
+        <v>66264252.96767134</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3326591742418313</v>
+        <v>0.3328422973728747</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02270798228496995</v>
+        <v>8.336819345716863</v>
       </c>
       <c r="H8" t="n">
-        <v>7.468518427595052e-06</v>
+        <v>0.006562488167126786</v>
       </c>
       <c r="I8" t="n">
-        <v>22.35374999999999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>22.68437225045486</v>
+        <v>22.32571428571429</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L8" t="n">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="M8" t="n">
-        <v>2280</v>
-      </c>
-      <c r="N8" t="inlineStr">
+        <v>276</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2274</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.4281976477223693</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>stump</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
-      <c r="T8" t="b">
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>39</v>
+      </c>
+      <c r="W8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>188-I</t>
+          <t>190-I</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>35479208.22661524</v>
+        <v>1551063178.553704</v>
       </c>
       <c r="E9" t="n">
-        <v>12690114.41025586</v>
+        <v>506549014.8230752</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3576774974571216</v>
+        <v>0.3265818064841235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.132503416187443</v>
+        <v>11.55614644761077</v>
       </c>
       <c r="H9" t="n">
-        <v>4.402463338780813e-06</v>
+        <v>0.005488183235627408</v>
       </c>
       <c r="I9" t="n">
-        <v>25.38260869565217</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>22.68437225045486</v>
+        <v>18.07916666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>1.95753781512605e-08</v>
       </c>
       <c r="L9" t="n">
-        <v>285</v>
+        <v>705</v>
       </c>
       <c r="M9" t="n">
-        <v>2262</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2317</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.4047972531955223</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>floor_layer</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
       <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>132</v>
+      </c>
+      <c r="W9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>188-I</t>
+          <t>190-I</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>218785060.1610894</v>
+        <v>1720086303.829249</v>
       </c>
       <c r="E10" t="n">
-        <v>72787400.37602946</v>
+        <v>562001694.3928907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3326890799693397</v>
+        <v>0.326728777004831</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01352567001753224</v>
+        <v>12.72535630047509</v>
       </c>
       <c r="H10" t="n">
-        <v>3.612491359588518e-05</v>
+        <v>0.01024169961414666</v>
       </c>
       <c r="I10" t="n">
-        <v>23.21772727272727</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.68437225045486</v>
+        <v>22.995</v>
       </c>
       <c r="K10" t="n">
-        <v>417</v>
+        <v>1.95753781512605e-08</v>
       </c>
       <c r="L10" t="n">
-        <v>282</v>
+        <v>704.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2239</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
+        <v>497.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2300</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.4138396996417394</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>floor_layer</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>40</v>
+      </c>
+      <c r="W10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1157,265 +1253,301 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>199086034.1089318</v>
+        <v>189256716.0396249</v>
       </c>
       <c r="E11" t="n">
-        <v>66264252.96767134</v>
+        <v>63005942.2036937</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3328422973728747</v>
+        <v>0.3329125830890042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006562488167126786</v>
+        <v>7.44184526465671</v>
       </c>
       <c r="H11" t="n">
-        <v>3.61491303905026e-05</v>
+        <v>0.01455156382545037</v>
       </c>
       <c r="I11" t="n">
-        <v>22.32571428571429</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.68437225045486</v>
+        <v>22.55666666666666</v>
       </c>
       <c r="K11" t="n">
-        <v>411</v>
+        <v>2.269214634146342e-08</v>
       </c>
       <c r="L11" t="n">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="M11" t="n">
-        <v>2274</v>
-      </c>
-      <c r="N11" t="inlineStr">
+        <v>279</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2251</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4414577782389095</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>stump</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
       <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>32</v>
+      </c>
+      <c r="W11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>190-I</t>
+          <t>195-I</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1551063178.553704</v>
+        <v>130899241.940588</v>
       </c>
       <c r="E12" t="n">
-        <v>506549014.8230752</v>
+        <v>43138970.10787216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3265818064841235</v>
+        <v>0.329558593833965</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005488183235627408</v>
+        <v>3.541728730228813</v>
       </c>
       <c r="H12" t="n">
-        <v>4.671753276425619e-05</v>
+        <v>0.01176372103563371</v>
       </c>
       <c r="I12" t="n">
-        <v>18.07916666666667</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19.45666493506494</v>
+        <v>21.49321428571428</v>
       </c>
       <c r="K12" t="n">
-        <v>705</v>
+        <v>2.416542253521127e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="M12" t="n">
-        <v>2317</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>floor_layer</t>
-        </is>
+        <v>350</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2493</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.3249741546756166</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>no apparent mode</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
       <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>107</v>
+      </c>
+      <c r="W12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>188-I</t>
+          <t>195-I</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>189256716.0396249</v>
+        <v>128459747.1570013</v>
       </c>
       <c r="E13" t="n">
-        <v>63005942.2036937</v>
+        <v>42406657.21275497</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3329125830890042</v>
+        <v>0.3301163060902361</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01455156382545037</v>
+        <v>3.559953277059854</v>
       </c>
       <c r="H13" t="n">
-        <v>3.350051523219811e-05</v>
+        <v>0.02201337894713395</v>
       </c>
       <c r="I13" t="n">
-        <v>22.55666666666666</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.68437225045486</v>
+        <v>24.41655172413793</v>
       </c>
       <c r="K13" t="n">
-        <v>414</v>
+        <v>2.416542253521127e-08</v>
       </c>
       <c r="L13" t="n">
-        <v>279</v>
+        <v>428.8888888888889</v>
       </c>
       <c r="M13" t="n">
-        <v>2251</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
+        <v>348.8888888888889</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2505</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.3203262043315757</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>no apparent mode</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
       <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9</v>
+      </c>
+      <c r="W13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>190-I</t>
+          <t>195-I</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1720086303.829249</v>
+        <v>115026209.1825299</v>
       </c>
       <c r="E14" t="n">
-        <v>562001694.3928907</v>
+        <v>38017979.33839032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.326728777004831</v>
+        <v>0.3305157981696267</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01024169961414666</v>
+        <v>3.157141130735837</v>
       </c>
       <c r="H14" t="n">
-        <v>4.905164964731196e-05</v>
+        <v>0.02711040921367834</v>
       </c>
       <c r="I14" t="n">
-        <v>22.995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>19.45666493506494</v>
+        <v>25.21766666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>704.5</v>
+        <v>2.416542253521127e-08</v>
       </c>
       <c r="L14" t="n">
-        <v>497.5</v>
+        <v>418.3333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>2300</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>floor_layer</t>
-        </is>
+        <v>348.3333333333333</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2493</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.3249741546756166</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>no apparent mode</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
       <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1429,265 +1561,301 @@
         <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>115026209.1825299</v>
+        <v>132627493.5922662</v>
       </c>
       <c r="E15" t="n">
-        <v>38017979.33839032</v>
+        <v>43772962.73450328</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3305157981696267</v>
+        <v>0.3300444089599819</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02711040921367834</v>
+        <v>3.923607433693806</v>
       </c>
       <c r="H15" t="n">
-        <v>9.618576688936203e-06</v>
+        <v>0.02049409443206462</v>
       </c>
       <c r="I15" t="n">
-        <v>25.21766666666667</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.13012653530378</v>
+        <v>24.70000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>418.3333333333333</v>
+        <v>2.416542253521127e-08</v>
       </c>
       <c r="L15" t="n">
-        <v>348.3333333333333</v>
+        <v>417.7777777777778</v>
       </c>
       <c r="M15" t="n">
-        <v>2493</v>
-      </c>
-      <c r="N15" t="inlineStr">
+        <v>347.7777777777778</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2552</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.302951877350049</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>no apparent mode</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12</v>
+      </c>
+      <c r="W15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>190-I</t>
+          <t>199-I</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1622802720.624833</v>
+        <v>238659954.5328438</v>
       </c>
       <c r="E16" t="n">
-        <v>530923622.0104603</v>
+        <v>78150028.57616693</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3271646117317557</v>
+        <v>0.327453462937001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01914626882043488</v>
+        <v>1.509673230406566</v>
       </c>
       <c r="H16" t="n">
-        <v>4.885627600752123e-05</v>
+        <v>0.03446745470178767</v>
       </c>
       <c r="I16" t="n">
-        <v>18.6155</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.45666493506494</v>
+        <v>18.98210526315789</v>
       </c>
       <c r="K16" t="n">
-        <v>705</v>
+        <v>1.61104347826087e-08</v>
       </c>
       <c r="L16" t="n">
-        <v>495</v>
+        <v>743</v>
       </c>
       <c r="M16" t="n">
-        <v>2274</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>floor_layer</t>
-        </is>
+        <v>598</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2624</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.2786917843191516</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
       <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14</v>
+      </c>
+      <c r="W16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>190-I</t>
+          <t>199-I</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1710462911.783044</v>
+        <v>174707444.9382453</v>
       </c>
       <c r="E17" t="n">
-        <v>558882576.9245909</v>
+        <v>57811260.08085488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3267434640497366</v>
+        <v>0.3309032428543026</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007630319147622535</v>
+        <v>1.448266662690242</v>
       </c>
       <c r="H17" t="n">
-        <v>5.363525865319886e-05</v>
+        <v>0.0565832760522561</v>
       </c>
       <c r="I17" t="n">
-        <v>18.90318181818182</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.45666493506494</v>
+        <v>17.107</v>
       </c>
       <c r="K17" t="n">
-        <v>700</v>
+        <v>1.61104347826087e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>490</v>
+        <v>715</v>
       </c>
       <c r="M17" t="n">
-        <v>2299</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>floor_layer</t>
-        </is>
+        <v>545</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2617</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.2809341212992905</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
       <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8</v>
+      </c>
+      <c r="W17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>199-I</t>
+          <t>190-I</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>110321578.3923689</v>
+        <v>1622802720.624833</v>
       </c>
       <c r="E18" t="n">
-        <v>35966905.17866752</v>
+        <v>530923622.0104603</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3260187689732637</v>
+        <v>0.3271646117317557</v>
       </c>
       <c r="G18" t="n">
-        <v>1.13260007896712e-31</v>
+        <v>11.77977436528149</v>
       </c>
       <c r="H18" t="n">
-        <v>9.553900004378704e-07</v>
+        <v>0.01914626882043488</v>
       </c>
       <c r="I18" t="n">
-        <v>14.30117647058823</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.97995825124308</v>
+        <v>18.6155</v>
       </c>
       <c r="K18" t="n">
-        <v>706.25</v>
+        <v>1.95753781512605e-08</v>
       </c>
       <c r="L18" t="n">
-        <v>546.25</v>
+        <v>705</v>
       </c>
       <c r="M18" t="n">
-        <v>2618</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>495</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2274</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.4281976477223693</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>floor_layer</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
       <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24</v>
+      </c>
+      <c r="W18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1701,401 +1869,455 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>132627493.5922662</v>
+        <v>134188112.6056782</v>
       </c>
       <c r="E19" t="n">
-        <v>43772962.73450328</v>
+        <v>44224990.58937503</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3300444089599819</v>
+        <v>0.3295745780353396</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02049409443206462</v>
+        <v>3.678875662601703</v>
       </c>
       <c r="H19" t="n">
-        <v>1.22223545708066e-05</v>
+        <v>0.01175769819084779</v>
       </c>
       <c r="I19" t="n">
-        <v>24.70000000000001</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.13012653530378</v>
+        <v>24.8232</v>
       </c>
       <c r="K19" t="n">
-        <v>417.7777777777778</v>
+        <v>2.416542253521127e-08</v>
       </c>
       <c r="L19" t="n">
-        <v>347.7777777777778</v>
+        <v>444.4444444444445</v>
       </c>
       <c r="M19" t="n">
-        <v>2552</v>
-      </c>
-      <c r="N19" t="inlineStr">
+        <v>349.4444444444445</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3222520080346267</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>no apparent mode</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
       <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>22</v>
+      </c>
+      <c r="W19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>199-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>109380185.5474328</v>
+        <v>27401935.07360287</v>
       </c>
       <c r="E20" t="n">
-        <v>35856236.5913192</v>
+        <v>9330795.049607476</v>
       </c>
       <c r="F20" t="n">
-        <v>0.327812906989174</v>
+        <v>0.3405159170162445</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03429453662967073</v>
+        <v>21.2347792236738</v>
       </c>
       <c r="H20" t="n">
-        <v>7.939917635363346e-07</v>
+        <v>0.00508636340308964</v>
       </c>
       <c r="I20" t="n">
-        <v>14.698</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.97995825124308</v>
+        <v>9.4426875</v>
       </c>
       <c r="K20" t="n">
-        <v>702.5</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L20" t="n">
-        <v>547.5</v>
+        <v>580</v>
       </c>
       <c r="M20" t="n">
-        <v>2588</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4358.6</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.06080994557179228</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>tear: slight and buckle</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
-      <c r="T20" t="b">
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>15</v>
+      </c>
+      <c r="V20" t="n">
+        <v>259</v>
+      </c>
+      <c r="W20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>195-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>128459747.1570013</v>
+        <v>110144998.0639614</v>
       </c>
       <c r="E21" t="n">
-        <v>42406657.21275497</v>
+        <v>36143889.85941914</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3301163060902361</v>
+        <v>0.3281482636045836</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02201337894713395</v>
+        <v>10.84459874877172</v>
       </c>
       <c r="H21" t="n">
-        <v>1.073308925082433e-05</v>
+        <v>0.01165800720254957</v>
       </c>
       <c r="I21" t="n">
-        <v>24.41655172413793</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.13012653530378</v>
+        <v>8.502624999999998</v>
       </c>
       <c r="K21" t="n">
-        <v>428.8888888888889</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L21" t="n">
-        <v>348.8888888888889</v>
+        <v>573</v>
       </c>
       <c r="M21" t="n">
-        <v>2505</v>
-      </c>
-      <c r="N21" t="inlineStr">
+        <v>396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4338.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.06165905337239655</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>no apparent mode</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>32</v>
+      </c>
+      <c r="W21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>195-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
         <v>22</v>
       </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
       <c r="D22" t="n">
-        <v>134188112.6056782</v>
+        <v>108889161.2375594</v>
       </c>
       <c r="E22" t="n">
-        <v>44224990.58937503</v>
+        <v>35766026.7121774</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3295745780353396</v>
+        <v>0.328462689083884</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01175769819084779</v>
+        <v>10.51993424762334</v>
       </c>
       <c r="H22" t="n">
-        <v>1.198860593216724e-05</v>
+        <v>0.01887718592602223</v>
       </c>
       <c r="I22" t="n">
-        <v>24.8232</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.13012653530378</v>
+        <v>8.948411764705881</v>
       </c>
       <c r="K22" t="n">
-        <v>444.4444444444445</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L22" t="n">
-        <v>349.4444444444445</v>
+        <v>574</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
-      </c>
-      <c r="N22" t="inlineStr">
+        <v>397</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4322.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.06236360692981875</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>no apparent mode</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>30</v>
+      </c>
+      <c r="W22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>195-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
         <v>22</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
       <c r="D23" t="n">
-        <v>130899241.940588</v>
+        <v>71368832.72280744</v>
       </c>
       <c r="E23" t="n">
-        <v>43138970.10787216</v>
+        <v>23637023.23977424</v>
       </c>
       <c r="F23" t="n">
-        <v>0.329558593833965</v>
+        <v>0.331195317871866</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01176372103563371</v>
+        <v>15.98214820430515</v>
       </c>
       <c r="H23" t="n">
-        <v>1.15793802749695e-05</v>
+        <v>0.003758173527682465</v>
       </c>
       <c r="I23" t="n">
-        <v>21.49321428571428</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>24.13012653530378</v>
+        <v>10.65879411764706</v>
       </c>
       <c r="K23" t="n">
-        <v>455</v>
+        <v>9.922734939759035e-09</v>
       </c>
       <c r="L23" t="n">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="M23" t="n">
-        <v>2493</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>no apparent mode</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4322.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.06235062262693944</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>tear and buckle</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>151</v>
+      </c>
+      <c r="W23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>201-I</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>78232184.30598795</v>
+        <v>54132790.62757564</v>
       </c>
       <c r="E24" t="n">
-        <v>25923759.00342947</v>
+        <v>17971568.94173876</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3313694898513175</v>
+        <v>0.3319904393139471</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01136078186992107</v>
+        <v>12.93751536904448</v>
       </c>
       <c r="H24" t="n">
-        <v>1.111924983406619e-05</v>
+        <v>0.01621929287258908</v>
       </c>
       <c r="I24" t="n">
-        <v>10.16104347826087</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>10.32701744811839</v>
+        <v>11.50605882352941</v>
       </c>
       <c r="K24" t="n">
-        <v>550</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L24" t="n">
-        <v>300</v>
+        <v>445</v>
       </c>
       <c r="M24" t="n">
-        <v>4306.1</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>tear: slight</t>
-        </is>
+        <v>292</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4299.4</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.06335663484784389</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
       <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>35</v>
+      </c>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2109,129 +2331,147 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>74648328.55380152</v>
+        <v>82052593.9276561</v>
       </c>
       <c r="E25" t="n">
-        <v>24795374.69382205</v>
+        <v>27211798.71748787</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3321624900944862</v>
+        <v>0.3316384944695337</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01516230614611489</v>
+        <v>19.26910222531559</v>
       </c>
       <c r="H25" t="n">
-        <v>6.539055663660548e-06</v>
+        <v>0.01005907383683027</v>
       </c>
       <c r="I25" t="n">
-        <v>11.44193103448276</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.257551621004</v>
+        <v>10.6978</v>
       </c>
       <c r="K25" t="n">
-        <v>443</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L25" t="n">
-        <v>288</v>
+        <v>447</v>
       </c>
       <c r="M25" t="n">
-        <v>4305.9</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>tear: slight and buckle</t>
-        </is>
+        <v>294</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4303.6</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.06317132144136049</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
       <c r="S25" t="n">
         <v>1</v>
       </c>
-      <c r="T25" t="b">
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>60</v>
+      </c>
+      <c r="W25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>201-I</t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>84390348.35541129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27972077.36695465</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.331460622121736</v>
+      </c>
+      <c r="G26" t="n">
+        <v>19.48277960535955</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.007313433824792243</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.973545454545453</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.126360681114551e-08</v>
+      </c>
+      <c r="L26" t="n">
+        <v>446</v>
+      </c>
+      <c r="M26" t="n">
+        <v>296</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4308.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.06296480279401197</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" t="n">
-        <v>22</v>
-      </c>
-      <c r="D26" t="n">
-        <v>72761360.02178121</v>
-      </c>
-      <c r="E26" t="n">
-        <v>24103506.50272679</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3312679490255732</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.003436400987681309</v>
-      </c>
-      <c r="H26" t="n">
-        <v>9.532474079882299e-06</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.78367741935484</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.32701744811839</v>
-      </c>
-      <c r="K26" t="n">
-        <v>553.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>298.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4320.5</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>15</v>
-      </c>
-      <c r="T26" t="b">
+      <c r="V26" t="n">
+        <v>65</v>
+      </c>
+      <c r="W26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2245,537 +2485,609 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>75895901.79644257</v>
+        <v>83063537.32751222</v>
       </c>
       <c r="E27" t="n">
-        <v>25201342.81669743</v>
+        <v>27515495.04466708</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3320514312391855</v>
+        <v>0.3312584068768454</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00892932170449679</v>
+        <v>18.59586590936544</v>
       </c>
       <c r="H27" t="n">
-        <v>1.096808390669059e-05</v>
+        <v>0.007477049443144312</v>
       </c>
       <c r="I27" t="n">
-        <v>12.64503571428572</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.257551621004</v>
+        <v>11.052125</v>
       </c>
       <c r="K27" t="n">
-        <v>448</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L27" t="n">
-        <v>286</v>
+        <v>440</v>
       </c>
       <c r="M27" t="n">
-        <v>4297</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>tear, split, and buckle</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4322</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.06236793583193873</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
       <c r="S27" t="n">
         <v>1</v>
       </c>
-      <c r="T27" t="b">
+      <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V27" t="n">
+        <v>193</v>
+      </c>
+      <c r="W27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>69526831.42744572</v>
+        <v>63477036.9513593</v>
       </c>
       <c r="E28" t="n">
-        <v>23048949.28517942</v>
+        <v>21039809.78051208</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3315115734740767</v>
+        <v>0.33145544894659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01103703330748845</v>
+        <v>14.50502433471842</v>
       </c>
       <c r="H28" t="n">
-        <v>9.700039082496027e-06</v>
+        <v>0.0109163266402706</v>
       </c>
       <c r="I28" t="n">
-        <v>9.437775510204084</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>10.32701744811839</v>
+        <v>9.368333333333336</v>
       </c>
       <c r="K28" t="n">
-        <v>572</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L28" t="n">
-        <v>297</v>
+        <v>575</v>
       </c>
       <c r="M28" t="n">
-        <v>4309.1</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>no apparent mode</t>
-        </is>
+        <v>298</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4322.6</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.06234196842745696</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>tear: slight and buckle</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
       <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>78</v>
+      </c>
+      <c r="W28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>68960957.68290046</v>
+        <v>84040385.52722934</v>
       </c>
       <c r="E29" t="n">
-        <v>22842497.64040823</v>
+        <v>27840362.42412486</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3312381151294865</v>
+        <v>0.3312736162437581</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006492928952415954</v>
+        <v>19.42627543161805</v>
       </c>
       <c r="H29" t="n">
-        <v>9.699349823545599e-06</v>
+        <v>0.004035156038769172</v>
       </c>
       <c r="I29" t="n">
-        <v>10.12688235294117</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.32701744811839</v>
+        <v>8.818124999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>567</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L29" t="n">
-        <v>300</v>
+        <v>558.5</v>
       </c>
       <c r="M29" t="n">
-        <v>4311.1</v>
-      </c>
-      <c r="N29" t="inlineStr">
+        <v>298.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4346.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.06131921781333616</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>carpet</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>59</v>
+      </c>
+      <c r="W29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>65465035.95526011</v>
+        <v>75297822.2063206</v>
       </c>
       <c r="E30" t="n">
-        <v>21695012.51882258</v>
+        <v>24940325.01231445</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3313984664065459</v>
+        <v>0.3312223950378863</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00992129157946803</v>
+        <v>17.16692897688572</v>
       </c>
       <c r="H30" t="n">
-        <v>8.946081290328156e-06</v>
+        <v>0.005724984387551251</v>
       </c>
       <c r="I30" t="n">
-        <v>8.864894736842105</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.32701744811839</v>
+        <v>8.768371428571429</v>
       </c>
       <c r="K30" t="n">
-        <v>568.5</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L30" t="n">
-        <v>298.5</v>
+        <v>575</v>
       </c>
       <c r="M30" t="n">
-        <v>4325.3</v>
-      </c>
-      <c r="N30" t="inlineStr">
+        <v>300</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4348.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.06124309916356428</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>carpet</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>92</v>
+      </c>
+      <c r="W30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>68910081.53685708</v>
+        <v>32533843.00142653</v>
       </c>
       <c r="E31" t="n">
-        <v>22834341.10610605</v>
+        <v>11077903.15151459</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3313643025352238</v>
+        <v>0.3405039838370417</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01119050583905812</v>
+        <v>25.22209892635359</v>
       </c>
       <c r="H31" t="n">
-        <v>8.316710269219907e-06</v>
+        <v>0.004214339892629013</v>
       </c>
       <c r="I31" t="n">
-        <v>10.216375</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10.32701744811839</v>
+        <v>10.23144117647059</v>
       </c>
       <c r="K31" t="n">
-        <v>575</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L31" t="n">
-        <v>300</v>
+        <v>565</v>
       </c>
       <c r="M31" t="n">
-        <v>4291.9</v>
-      </c>
-      <c r="N31" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4359.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.06078483939704878</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>carpet</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
       <c r="S31" t="n">
-        <v>16</v>
-      </c>
-      <c r="T31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7</v>
+      </c>
+      <c r="V31" t="n">
+        <v>211</v>
+      </c>
+      <c r="W31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>202-I</t>
+          <t>201-I</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>68095383.38791935</v>
+        <v>28132714.50756689</v>
       </c>
       <c r="E32" t="n">
-        <v>22568789.16701645</v>
+        <v>9675802.988389065</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3314290638243227</v>
+        <v>0.3439342117443573</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008191816323575591</v>
+        <v>28.51224399802822</v>
       </c>
       <c r="H32" t="n">
-        <v>7.498960304750202e-06</v>
+        <v>0.00544334735781353</v>
       </c>
       <c r="I32" t="n">
-        <v>10.36669696969697</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.32701744811839</v>
+        <v>12.14907142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>564</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L32" t="n">
-        <v>297</v>
+        <v>452</v>
       </c>
       <c r="M32" t="n">
-        <v>4308.7</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4337.5</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.06170170923624108</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
+          <t>tear: slight</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
       <c r="S32" t="n">
-        <v>4</v>
-      </c>
-      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>71</v>
+      </c>
+      <c r="W32" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>201-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
-        <v>82513490.37605241</v>
+        <v>69526831.42744572</v>
       </c>
       <c r="E33" t="n">
-        <v>27333359.34757658</v>
+        <v>23048949.28517942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3312592792161104</v>
+        <v>0.3315115734740767</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007515597685249773</v>
+        <v>15.89857750385629</v>
       </c>
       <c r="H33" t="n">
-        <v>1.23163285713202e-05</v>
+        <v>0.01103703330748845</v>
       </c>
       <c r="I33" t="n">
-        <v>11.052125</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.257551621004</v>
+        <v>9.229020000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>440</v>
+        <v>9.922734939759035e-09</v>
       </c>
       <c r="L33" t="n">
-        <v>300</v>
+        <v>572</v>
       </c>
       <c r="M33" t="n">
-        <v>4322</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>297</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4309.1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.06292974037418002</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>no apparent mode</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
       <c r="S33" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>72</v>
+      </c>
+      <c r="W33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>201-I</t>
+          <t>203-I</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
-        <v>79580394.21513727</v>
+        <v>19292827.44125142</v>
       </c>
       <c r="E34" t="n">
-        <v>26379795.28790513</v>
+        <v>6574000.528147016</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3314861097142861</v>
+        <v>0.3407484231207428</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008389471407248534</v>
+        <v>14.8721946351821</v>
       </c>
       <c r="H34" t="n">
-        <v>9.214041285142978e-06</v>
+        <v>0.008373335676425316</v>
       </c>
       <c r="I34" t="n">
-        <v>9.973545454545453</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.257551621004</v>
+        <v>8.720185185185183</v>
       </c>
       <c r="K34" t="n">
-        <v>446</v>
+        <v>9.193645695364239e-09</v>
       </c>
       <c r="L34" t="n">
-        <v>296</v>
+        <v>576</v>
       </c>
       <c r="M34" t="n">
-        <v>4308.3</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>199</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4329.2</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.0620572760837813</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>tear: big</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
       <c r="S34" t="n">
-        <v>3</v>
-      </c>
-      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>148</v>
+      </c>
+      <c r="W34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2789,129 +3101,147 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>54132790.62757564</v>
+        <v>76716811.12492387</v>
       </c>
       <c r="E35" t="n">
-        <v>17971568.94173876</v>
+        <v>25473997.89507972</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3319904393139471</v>
+        <v>0.3320523562117104</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01621929287258908</v>
+        <v>19.48067336096114</v>
       </c>
       <c r="H35" t="n">
-        <v>8.413628898598099e-06</v>
+        <v>0.008963652372745635</v>
       </c>
       <c r="I35" t="n">
-        <v>11.50605882352941</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.257551621004</v>
+        <v>12.64503571428572</v>
       </c>
       <c r="K35" t="n">
-        <v>445</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L35" t="n">
-        <v>292</v>
+        <v>448</v>
       </c>
       <c r="M35" t="n">
-        <v>4299.4</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>286</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4297</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.0634628537450657</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>tear, split, and buckle</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
       <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>59</v>
+      </c>
+      <c r="W35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>201-I</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>19292827.44125142</v>
+        <v>74225761.81874464</v>
       </c>
       <c r="E36" t="n">
-        <v>6574000.528147016</v>
+        <v>24636102.79310063</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3407484231207428</v>
+        <v>0.3319077122207338</v>
       </c>
       <c r="G36" t="n">
-        <v>0.008373335676425316</v>
+        <v>18.5731035316486</v>
       </c>
       <c r="H36" t="n">
-        <v>9.097827072245766e-06</v>
+        <v>0.007791349915150159</v>
       </c>
       <c r="I36" t="n">
-        <v>8.720185185185183</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.100022548533302</v>
+        <v>11.44193103448276</v>
       </c>
       <c r="K36" t="n">
-        <v>576</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L36" t="n">
-        <v>199</v>
+        <v>443</v>
       </c>
       <c r="M36" t="n">
-        <v>4329.2</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>tear: big</t>
-        </is>
+        <v>288</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4305.9</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.06307014646455865</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
+          <t>tear: slight and buckle</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
       <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>56</v>
+      </c>
+      <c r="W36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2925,265 +3255,301 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
-        <v>82052593.9276561</v>
+        <v>30288200.08719992</v>
       </c>
       <c r="E37" t="n">
-        <v>27211798.71748787</v>
+        <v>10404429.94146959</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3316384944695337</v>
+        <v>0.3435143029798789</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01005907383683027</v>
+        <v>29.64096650914609</v>
       </c>
       <c r="H37" t="n">
-        <v>1.197191461015743e-05</v>
+        <v>0.005882510360130005</v>
       </c>
       <c r="I37" t="n">
-        <v>10.6978</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.257551621004</v>
+        <v>10.82279411764706</v>
       </c>
       <c r="K37" t="n">
-        <v>447</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L37" t="n">
-        <v>294</v>
+        <v>454</v>
       </c>
       <c r="M37" t="n">
-        <v>4303.6</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4334.3</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.0618384726897149</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>tear: slight</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
       <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>106</v>
+      </c>
+      <c r="W37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" t="n">
-        <v>27470026.38463533</v>
+        <v>68960957.68290046</v>
       </c>
       <c r="E38" t="n">
-        <v>9353965.981935853</v>
+        <v>22842497.64040823</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3405153621245796</v>
+        <v>0.3312381151294865</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005049078538499878</v>
+        <v>15.32213452006016</v>
       </c>
       <c r="H38" t="n">
-        <v>1.184932607113077e-05</v>
+        <v>0.006492928952415954</v>
       </c>
       <c r="I38" t="n">
-        <v>9.4426875</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>9.100022548533302</v>
+        <v>10.12688235294117</v>
       </c>
       <c r="K38" t="n">
-        <v>580</v>
+        <v>9.922734939759035e-09</v>
       </c>
       <c r="L38" t="n">
-        <v>200</v>
+        <v>567</v>
       </c>
       <c r="M38" t="n">
-        <v>4358.6</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>tear: slight and buckle</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4311.1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.06284219814513771</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
       <c r="S38" t="n">
-        <v>15</v>
-      </c>
-      <c r="T38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>70</v>
+      </c>
+      <c r="W38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>201-I</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>63477036.9513593</v>
+        <v>30335038.00487319</v>
       </c>
       <c r="E39" t="n">
-        <v>21039809.78051208</v>
+        <v>10446597.50274312</v>
       </c>
       <c r="F39" t="n">
-        <v>0.33145544894659</v>
+        <v>0.3443739711506187</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0109163266402706</v>
+        <v>31.65319854730146</v>
       </c>
       <c r="H39" t="n">
-        <v>8.888944473444759e-06</v>
+        <v>0.005346651769759217</v>
       </c>
       <c r="I39" t="n">
-        <v>9.368333333333336</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.100022548533302</v>
+        <v>10.52066666666667</v>
       </c>
       <c r="K39" t="n">
-        <v>575</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L39" t="n">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="M39" t="n">
-        <v>4322.6</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>tear: slight and buckle</t>
-        </is>
+        <v>180</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4331.7</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.06194989076069873</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>tear: slight</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
       <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>126</v>
+      </c>
+      <c r="W39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>201-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>30335038.00487319</v>
+        <v>65465035.95526011</v>
       </c>
       <c r="E40" t="n">
-        <v>10446597.50274312</v>
+        <v>21695012.51882258</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3443739711506187</v>
+        <v>0.3313984664065459</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005346651769759217</v>
+        <v>14.91216053997263</v>
       </c>
       <c r="H40" t="n">
-        <v>2.028272303627982e-05</v>
+        <v>0.00992129157946803</v>
       </c>
       <c r="I40" t="n">
-        <v>10.52066666666667</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.257551621004</v>
+        <v>8.864894736842105</v>
       </c>
       <c r="K40" t="n">
-        <v>455</v>
+        <v>9.922734939759035e-09</v>
       </c>
       <c r="L40" t="n">
-        <v>180</v>
+        <v>568.5</v>
       </c>
       <c r="M40" t="n">
-        <v>4331.7</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>tear: slight</t>
-        </is>
+        <v>298.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4325.3</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.06222529333200345</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
       <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>64</v>
+      </c>
+      <c r="W40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3197,129 +3563,147 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>27739069.98562809</v>
+        <v>79105790.03537768</v>
       </c>
       <c r="E41" t="n">
-        <v>9541530.184079854</v>
+        <v>26263229.38513739</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3439744082632699</v>
+        <v>0.3320013537996644</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007568458384117809</v>
+        <v>19.33350839365253</v>
       </c>
       <c r="H41" t="n">
-        <v>1.359640837598724e-05</v>
+        <v>0.01404763572027797</v>
       </c>
       <c r="I41" t="n">
-        <v>12.14907142857143</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.257551621004</v>
+        <v>12.21207407407408</v>
       </c>
       <c r="K41" t="n">
-        <v>452</v>
+        <v>1.126360681114551e-08</v>
       </c>
       <c r="L41" t="n">
-        <v>182</v>
+        <v>445</v>
       </c>
       <c r="M41" t="n">
-        <v>4337.5</v>
-      </c>
-      <c r="N41" t="inlineStr">
+        <v>290</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4301.9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.06324624207430858</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>tear: slight</t>
         </is>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
       <c r="S41" t="n">
-        <v>2</v>
-      </c>
-      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>34</v>
+      </c>
+      <c r="W41" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>201-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D42" t="n">
-        <v>29805672.93740941</v>
+        <v>71332043.62432396</v>
       </c>
       <c r="E42" t="n">
-        <v>10238708.96677434</v>
+        <v>23637471.09500844</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3435154437973998</v>
+        <v>0.331372408443772</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005948756484301839</v>
+        <v>16.30683020609285</v>
       </c>
       <c r="H42" t="n">
-        <v>1.784163597034059e-05</v>
+        <v>0.005436412883354217</v>
       </c>
       <c r="I42" t="n">
-        <v>10.82279411764706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.257551621004</v>
+        <v>10.36669696969697</v>
       </c>
       <c r="K42" t="n">
-        <v>454</v>
+        <v>9.922734939759035e-09</v>
       </c>
       <c r="L42" t="n">
-        <v>184</v>
+        <v>564</v>
       </c>
       <c r="M42" t="n">
-        <v>4334.3</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>tear: slight</t>
-        </is>
+        <v>297</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4308.7</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.06294726832906138</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
       <c r="S42" t="n">
-        <v>15</v>
-      </c>
-      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>105</v>
+      </c>
+      <c r="W42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3330,744 +3714,843 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>71368832.72280744</v>
+        <v>70491067.99939176</v>
       </c>
       <c r="E43" t="n">
-        <v>23637023.23977424</v>
+        <v>23356351.22245124</v>
       </c>
       <c r="F43" t="n">
-        <v>0.331195317871866</v>
+        <v>0.3313377408702727</v>
       </c>
       <c r="G43" t="n">
-        <v>0.003758173527682465</v>
+        <v>15.45377448380298</v>
       </c>
       <c r="H43" t="n">
-        <v>1.001480021935049e-05</v>
+        <v>0.01037424461320541</v>
       </c>
       <c r="I43" t="n">
-        <v>10.65879411764706</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.32701744811839</v>
+        <v>10.216375</v>
       </c>
       <c r="K43" t="n">
+        <v>9.922734939759035e-09</v>
+      </c>
+      <c r="L43" t="n">
         <v>575</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>300</v>
       </c>
-      <c r="M43" t="n">
-        <v>4322.4</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>tear and buckle</t>
-        </is>
+      <c r="N43" t="n">
+        <v>4291.9</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.06368935853832067</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
       <c r="S43" t="n">
-        <v>7</v>
-      </c>
-      <c r="T43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>16</v>
+      </c>
+      <c r="V43" t="n">
+        <v>76</v>
+      </c>
+      <c r="W43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>201-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
+        <v>22</v>
+      </c>
+      <c r="D44" t="n">
+        <v>72792350.60046855</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24113491.1249845</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3312640809930004</v>
+      </c>
+      <c r="G44" t="n">
+        <v>16.52609428956883</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.003040749295081856</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12.78367741935484</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9.922734939759035e-09</v>
+      </c>
+      <c r="L44" t="n">
+        <v>553.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4320.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.06243291746858779</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" t="n">
         <v>15</v>
       </c>
-      <c r="D44" t="n">
-        <v>79105790.03537768</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26263229.38513739</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.3320013537996644</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.01404763572027797</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1.186448671230087e-05</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.21207407407408</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.257551621004</v>
-      </c>
-      <c r="K44" t="n">
-        <v>445</v>
-      </c>
-      <c r="L44" t="n">
-        <v>290</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4301.9</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>tear: slight</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="b">
+      <c r="V44" t="n">
+        <v>153</v>
+      </c>
+      <c r="W44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>202-I</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" t="n">
-        <v>108889161.2375594</v>
+        <v>78232184.30598795</v>
       </c>
       <c r="E45" t="n">
-        <v>35766026.7121774</v>
+        <v>25923759.00342947</v>
       </c>
       <c r="F45" t="n">
-        <v>0.328462689083884</v>
+        <v>0.3313694898513175</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01887718592602223</v>
+        <v>17.32165905692099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.428263578617845e-06</v>
+        <v>0.01136078186992107</v>
       </c>
       <c r="I45" t="n">
-        <v>8.948411764705881</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.100022548533302</v>
+        <v>10.16104347826087</v>
       </c>
       <c r="K45" t="n">
-        <v>574</v>
+        <v>9.922734939759035e-09</v>
       </c>
       <c r="L45" t="n">
-        <v>397</v>
+        <v>550</v>
       </c>
       <c r="M45" t="n">
-        <v>4322.1</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>no apparent mode</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4306.1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>0.06306135885388954</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
+          <t>tear: slight</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
       <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>55</v>
+      </c>
+      <c r="W45" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>194-U</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>110144998.0639614</v>
+        <v>6460861.856836963</v>
       </c>
       <c r="E46" t="n">
-        <v>36143889.85941914</v>
+        <v>2201421.975841831</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3281482636045836</v>
+        <v>0.340731937104066</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01165800720254957</v>
+        <v>2.528597881653043</v>
       </c>
       <c r="H46" t="n">
-        <v>6.587388291481336e-06</v>
+        <v>0.011784533776934</v>
       </c>
       <c r="I46" t="n">
-        <v>8.502624999999998</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9.100022548533302</v>
+        <v>6.347944444444444</v>
       </c>
       <c r="K46" t="n">
-        <v>573</v>
+        <v>8.042595890410958e-09</v>
       </c>
       <c r="L46" t="n">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="M46" t="n">
-        <v>4338.5</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>no apparent mode</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3471</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.1204070225592472</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>carpet</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>45</v>
+      </c>
+      <c r="W46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>200-U</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>75130136.55483417</v>
+        <v>32399020.43515755</v>
       </c>
       <c r="E47" t="n">
-        <v>24905050.42495392</v>
+        <v>10737096.88483368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.331492149049627</v>
+        <v>0.3314018985951316</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01454459876188578</v>
+        <v>7.61670588557555</v>
       </c>
       <c r="H47" t="n">
-        <v>7.517879539512143e-06</v>
+        <v>0.01236622627510128</v>
       </c>
       <c r="I47" t="n">
-        <v>8.768371428571429</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>9.100022548533302</v>
+        <v>7.428588235294119</v>
       </c>
       <c r="K47" t="n">
-        <v>575</v>
+        <v>6.853536231884058e-09</v>
       </c>
       <c r="L47" t="n">
+        <v>470</v>
+      </c>
+      <c r="M47" t="n">
         <v>300</v>
       </c>
-      <c r="M47" t="n">
-        <v>4348.3</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+      <c r="N47" t="n">
+        <v>4393</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>0.05939256045953481</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>tear: big</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
-      </c>
-      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>83</v>
+      </c>
+      <c r="W47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>200-U</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>84040385.52722934</v>
+        <v>40366305.73065633</v>
       </c>
       <c r="E48" t="n">
-        <v>27840362.42412486</v>
+        <v>13372542.68792387</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3312736162437581</v>
+        <v>0.3312798247417534</v>
       </c>
       <c r="G48" t="n">
-        <v>0.004035156038769172</v>
+        <v>9.330160693225828</v>
       </c>
       <c r="H48" t="n">
-        <v>1.171330507110568e-05</v>
+        <v>0.007146182206347882</v>
       </c>
       <c r="I48" t="n">
-        <v>8.818124999999998</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>9.100022548533302</v>
+        <v>5.83859090909091</v>
       </c>
       <c r="K48" t="n">
-        <v>558.5</v>
+        <v>6.853536231884058e-09</v>
       </c>
       <c r="L48" t="n">
-        <v>298.5</v>
+        <v>459.4</v>
       </c>
       <c r="M48" t="n">
-        <v>4346.5</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>299.4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4359.5</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.0607722914922631</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>carpet: short</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>84</v>
+      </c>
+      <c r="W48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>203-I</t>
+          <t>200-U</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>32533843.00142653</v>
+        <v>38510322.05491118</v>
       </c>
       <c r="E49" t="n">
-        <v>11077903.15151459</v>
+        <v>12769172.50853327</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3405039838370417</v>
+        <v>0.3315779205981695</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004214339892629013</v>
+        <v>8.979574801093696</v>
       </c>
       <c r="H49" t="n">
-        <v>1.534332286261165e-05</v>
+        <v>0.01511920691455382</v>
       </c>
       <c r="I49" t="n">
-        <v>10.23144117647059</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>9.100022548533302</v>
+        <v>6.852529411764706</v>
       </c>
       <c r="K49" t="n">
-        <v>565</v>
+        <v>6.853536231884058e-09</v>
       </c>
       <c r="L49" t="n">
-        <v>200</v>
+        <v>458.8</v>
       </c>
       <c r="M49" t="n">
-        <v>4359.2</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>298.8</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4363.5</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>0.06060531562745619</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>carpet: short</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
         <v>7</v>
       </c>
-      <c r="T49" t="b">
+      <c r="V49" t="n">
+        <v>38</v>
+      </c>
+      <c r="W49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>200-U</t>
+          <t>194-U</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>38186673.17972788</v>
+        <v>5923929.867161443</v>
       </c>
       <c r="E50" t="n">
-        <v>12661427.01971994</v>
+        <v>2033091.251738781</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3315666426380787</v>
+        <v>0.343199750390187</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01486981841874462</v>
+        <v>2.237266614459476</v>
       </c>
       <c r="H50" t="n">
-        <v>5.272391077435601e-06</v>
+        <v>0.04271352532480901</v>
       </c>
       <c r="I50" t="n">
-        <v>6.852529411764706</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>6.846272575450243</v>
+        <v>8.76652</v>
       </c>
       <c r="K50" t="n">
-        <v>458.8</v>
+        <v>8.042595890410958e-09</v>
       </c>
       <c r="L50" t="n">
-        <v>298.8</v>
+        <v>280</v>
       </c>
       <c r="M50" t="n">
-        <v>4363.5</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>carpet: short</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3430</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.1247766432760532</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2</v>
-      </c>
       <c r="S50" t="n">
-        <v>7</v>
-      </c>
-      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>14</v>
+      </c>
+      <c r="W50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>194-U</t>
+          <t>200-U</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5760980.477517959</v>
+        <v>27966228.44460294</v>
       </c>
       <c r="E51" t="n">
-        <v>1967427.928626454</v>
+        <v>9270953.284278255</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3415092164093037</v>
+        <v>0.3315053119387433</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02584090502011098</v>
+        <v>6.689685601442089</v>
       </c>
       <c r="H51" t="n">
-        <v>2.516511892368471e-06</v>
+        <v>0.01092965084921794</v>
       </c>
       <c r="I51" t="n">
-        <v>6.523826086956522</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>8.236915093921628</v>
+        <v>8.443206896551722</v>
       </c>
       <c r="K51" t="n">
-        <v>280</v>
+        <v>6.853536231884058e-09</v>
       </c>
       <c r="L51" t="n">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="M51" t="n">
-        <v>3445</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>297</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4374.3</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>0.06015752555281061</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
+          <t>tear: big</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2</v>
-      </c>
       <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2</v>
+      </c>
+      <c r="U51" t="n">
+        <v>6</v>
+      </c>
+      <c r="V51" t="n">
+        <v>26</v>
+      </c>
+      <c r="W51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>194-U</t>
+          <t>200-U</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>3935364.753436502</v>
+        <v>38018461.83006709</v>
       </c>
       <c r="E52" t="n">
-        <v>1340804.860686053</v>
+        <v>12598727.64424641</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3407066294211265</v>
+        <v>0.3313844652779362</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01254056847546552</v>
+        <v>8.914079355399128</v>
       </c>
       <c r="H52" t="n">
-        <v>1.732884915064089e-06</v>
+        <v>0.007703871775206123</v>
       </c>
       <c r="I52" t="n">
-        <v>9.664350000000002</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>8.236915093921628</v>
+        <v>6.90172</v>
       </c>
       <c r="K52" t="n">
-        <v>300</v>
+        <v>6.853536231884058e-09</v>
       </c>
       <c r="L52" t="n">
-        <v>200</v>
+        <v>457.6</v>
       </c>
       <c r="M52" t="n">
-        <v>4414</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>297.6</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4354</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.06100288635077461</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>tear: big</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2</v>
-      </c>
       <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>73</v>
+      </c>
+      <c r="W52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>194-U</t>
+          <t>198-U</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>6129476.82002129</v>
+        <v>18256168.9882466</v>
       </c>
       <c r="E53" t="n">
-        <v>2088951.010498074</v>
+        <v>5992291.806041136</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3408041292651169</v>
+        <v>0.3282338046881029</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0148240640493097</v>
+        <v>0.8811208698059982</v>
       </c>
       <c r="H53" t="n">
-        <v>2.799983885575273e-06</v>
+        <v>0.03513982437930539</v>
       </c>
       <c r="I53" t="n">
-        <v>6.710035714285715</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>8.236915093921628</v>
+        <v>8.646043478260868</v>
       </c>
       <c r="K53" t="n">
-        <v>335</v>
+        <v>9.009586956521739e-09</v>
       </c>
       <c r="L53" t="n">
-        <v>200</v>
+        <v>716.5</v>
       </c>
       <c r="M53" t="n">
-        <v>4270</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>496.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4289</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>0.06381863626173961</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
+          <t>tear and buckle</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
       <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>11</v>
+      </c>
+      <c r="W53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4078,200 +4561,227 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
         <v>5</v>
       </c>
-      <c r="C54" t="n">
-        <v>2</v>
-      </c>
       <c r="D54" t="n">
-        <v>19612718.88696563</v>
+        <v>11717507.22487771</v>
       </c>
       <c r="E54" t="n">
-        <v>6686288.023282373</v>
+        <v>3967085.09977631</v>
       </c>
       <c r="F54" t="n">
-        <v>0.340915915932798</v>
+        <v>0.3385604995705657</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09865760242853358</v>
+        <v>0.5584891624709177</v>
       </c>
       <c r="H54" t="n">
-        <v>5.073675347777393e-07</v>
+        <v>0.08996213088716631</v>
       </c>
       <c r="I54" t="n">
-        <v>9.324</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>9.041232298136645</v>
       </c>
       <c r="K54" t="n">
-        <v>718.25</v>
+        <v>9.009586956521739e-09</v>
       </c>
       <c r="L54" t="n">
-        <v>498.25</v>
+        <v>693</v>
       </c>
       <c r="M54" t="n">
-        <v>4271</v>
-      </c>
-      <c r="N54" t="inlineStr">
+        <v>492.9999999999999</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4241</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.06601016842728623</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>tear and buckle</t>
         </is>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
       <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>8</v>
+      </c>
+      <c r="W54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>194-U</t>
+          <t>198-U</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>5809518.970337952</v>
+        <v>14773059.24339021</v>
       </c>
       <c r="E55" t="n">
-        <v>1982354.952663676</v>
+        <v>4841040.189590839</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3412253170675777</v>
+        <v>0.3276938181749204</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0217948529581242</v>
+        <v>0.7180866913121216</v>
       </c>
       <c r="H55" t="n">
-        <v>2.713544039216786e-06</v>
+        <v>0.02945395805237477</v>
       </c>
       <c r="I55" t="n">
-        <v>7.445529411764706</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>8.236915093921628</v>
+        <v>9.001100000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>285</v>
+        <v>9.009586956521739e-09</v>
       </c>
       <c r="L55" t="n">
-        <v>200</v>
+        <v>704.75</v>
       </c>
       <c r="M55" t="n">
-        <v>3465</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
+        <v>494.7499999999999</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4284</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>0.06404235177332668</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
+          <t>tear and buckle</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
       <c r="S55" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>8</v>
+      </c>
+      <c r="W55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>200-U</t>
+          <t>194-U</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>32399020.43515755</v>
+        <v>6129476.82002129</v>
       </c>
       <c r="E56" t="n">
-        <v>10737096.88483368</v>
+        <v>2088951.010498074</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3314018985951316</v>
+        <v>0.3408041292651169</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01236622627510128</v>
+        <v>4.466141777100998</v>
       </c>
       <c r="H56" t="n">
-        <v>3.781904245610844e-06</v>
+        <v>0.0148240640493097</v>
       </c>
       <c r="I56" t="n">
-        <v>7.428588235294119</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>6.846272575450243</v>
+        <v>6.710035714285715</v>
       </c>
       <c r="K56" t="n">
-        <v>470</v>
+        <v>8.042595890410958e-09</v>
       </c>
       <c r="L56" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M56" t="n">
-        <v>4393</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>tear: big</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4270</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>0.06467434412917547</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2</v>
-      </c>
       <c r="S56" t="n">
-        <v>2</v>
-      </c>
-      <c r="T56" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>28</v>
+      </c>
+      <c r="W56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4285,197 +4795,224 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>5923929.867161443</v>
+        <v>3935364.753436502</v>
       </c>
       <c r="E57" t="n">
-        <v>2033091.251738781</v>
+        <v>1340804.860686053</v>
       </c>
       <c r="F57" t="n">
-        <v>0.343199750390187</v>
+        <v>0.3407066294211265</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04271352532480901</v>
+        <v>3.167433105469165</v>
       </c>
       <c r="H57" t="n">
-        <v>2.611166919191081e-06</v>
+        <v>0.01254056847546552</v>
       </c>
       <c r="I57" t="n">
-        <v>8.76652</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>8.236915093921628</v>
+        <v>9.664350000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>280</v>
+        <v>8.042595890410958e-09</v>
       </c>
       <c r="L57" t="n">
+        <v>300</v>
+      </c>
+      <c r="M57" t="n">
         <v>200</v>
       </c>
-      <c r="M57" t="n">
-        <v>3430</v>
-      </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="n">
+        <v>4414</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.05854889079067568</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>carpet</t>
         </is>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
       <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>25</v>
+      </c>
+      <c r="W57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>200-U</t>
+          <t>194-U</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>38176520.35824486</v>
+        <v>5760980.477517959</v>
       </c>
       <c r="E58" t="n">
-        <v>12649391.92661364</v>
+        <v>1967427.928626454</v>
       </c>
       <c r="F58" t="n">
-        <v>0.331339572279321</v>
+        <v>0.3415092164093037</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0071022208295059</v>
+        <v>2.204395702786051</v>
       </c>
       <c r="H58" t="n">
-        <v>5.496752186611913e-06</v>
+        <v>0.02584090502011098</v>
       </c>
       <c r="I58" t="n">
-        <v>5.613000000000001</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>6.846272575450243</v>
+        <v>6.523826086956522</v>
       </c>
       <c r="K58" t="n">
-        <v>458.2</v>
+        <v>8.042595890410958e-09</v>
       </c>
       <c r="L58" t="n">
-        <v>298.2</v>
+        <v>280</v>
       </c>
       <c r="M58" t="n">
-        <v>4369.4</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>carpet: short</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3445</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>0.123153846127334</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
       <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>39</v>
+      </c>
+      <c r="W58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>200-U</t>
+          <t>194-U</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>38018461.83006709</v>
+        <v>5809518.970337952</v>
       </c>
       <c r="E59" t="n">
-        <v>12598727.64424641</v>
+        <v>1982354.952663676</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3313844652779362</v>
+        <v>0.3412253170675777</v>
       </c>
       <c r="G59" t="n">
-        <v>0.007703871775206123</v>
+        <v>2.261910228659547</v>
       </c>
       <c r="H59" t="n">
-        <v>5.461020952306926e-06</v>
+        <v>0.0217948529581242</v>
       </c>
       <c r="I59" t="n">
-        <v>6.90172</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>6.846272575450243</v>
+        <v>7.445529411764706</v>
       </c>
       <c r="K59" t="n">
-        <v>457.6</v>
+        <v>8.042595890410958e-09</v>
       </c>
       <c r="L59" t="n">
-        <v>297.6</v>
+        <v>285</v>
       </c>
       <c r="M59" t="n">
-        <v>4354</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>tear: big</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3465</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.1210335973120399</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
+          <t>carpet</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q59" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2</v>
-      </c>
       <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>29</v>
+      </c>
+      <c r="W59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4489,401 +5026,70 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>27953950.90388751</v>
+        <v>38176520.35824486</v>
       </c>
       <c r="E60" t="n">
-        <v>9267624.506316729</v>
+        <v>12649391.92661364</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3315318302654633</v>
+        <v>0.331339572279321</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01170640436899104</v>
+        <v>8.99195858110123</v>
       </c>
       <c r="H60" t="n">
-        <v>3.853676919354005e-06</v>
+        <v>0.0071022208295059</v>
       </c>
       <c r="I60" t="n">
-        <v>8.443206896551722</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>6.846272575450243</v>
+        <v>5.613000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>457</v>
+        <v>6.853536231884058e-09</v>
       </c>
       <c r="L60" t="n">
-        <v>297</v>
+        <v>458.2</v>
       </c>
       <c r="M60" t="n">
-        <v>4374.3</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>tear: big</t>
-        </is>
+        <v>298.2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4369.4</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>0.06036014094604928</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
+          <t>carpet: short</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
       <c r="S60" t="n">
-        <v>6</v>
-      </c>
-      <c r="T60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>198-U</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>14773059.24339021</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4841040.189590839</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.3276938181749204</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.02945395805237477</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4.097572963949845e-07</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9.001100000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.041232298136645</v>
-      </c>
-      <c r="K61" t="n">
-        <v>704.75</v>
-      </c>
-      <c r="L61" t="n">
-        <v>494.7499999999999</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4284</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>tear and buckle</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
-      <c r="T61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>198-U</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>18256168.9882466</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5992291.806041136</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.3282338046881029</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.03513982437930539</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5.08092907953318e-07</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8.646043478260868</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9.041232298136645</v>
-      </c>
-      <c r="K62" t="n">
-        <v>716.5</v>
-      </c>
-      <c r="L62" t="n">
-        <v>496.5</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4289</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>tear and buckle</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
-      <c r="T62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>200-U</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>4</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>40366305.73065633</v>
-      </c>
-      <c r="E63" t="n">
-        <v>13372542.68792387</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.3312798247417534</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.007146182206347882</v>
-      </c>
-      <c r="H63" t="n">
-        <v>5.428439439627034e-06</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.83859090909091</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.846272575450243</v>
-      </c>
-      <c r="K63" t="n">
-        <v>459.4</v>
-      </c>
-      <c r="L63" t="n">
-        <v>299.4</v>
-      </c>
-      <c r="M63" t="n">
-        <v>4359.5</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>carpet: short</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" t="n">
-        <v>1</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>194-U</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>6460861.856836963</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2201421.975841831</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.340731937104066</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.011784533776934</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.847768053951099e-06</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6.347944444444444</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.236915093921628</v>
-      </c>
-      <c r="K64" t="n">
-        <v>295</v>
-      </c>
-      <c r="L64" t="n">
-        <v>200</v>
-      </c>
-      <c r="M64" t="n">
-        <v>3471</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>carpet</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q64" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>198-U</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>4</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5</v>
-      </c>
-      <c r="D65" t="n">
-        <v>13944497.93038128</v>
-      </c>
-      <c r="E65" t="n">
-        <v>5046925.538793785</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.3619295268994879</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.1564063795565124</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2.024946608176126e-07</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9.041232298136645</v>
-      </c>
-      <c r="J65" t="n">
-        <v>9.041232298136645</v>
-      </c>
-      <c r="K65" t="n">
-        <v>693</v>
-      </c>
-      <c r="L65" t="n">
-        <v>492.9999999999999</v>
-      </c>
-      <c r="M65" t="n">
-        <v>4241</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>tear and buckle</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q65" t="n">
-        <v>1</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
-      <c r="T65" t="b">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>89</v>
+      </c>
+      <c r="W60" t="b">
         <v>0</v>
       </c>
     </row>
